--- a/docs/StructureDefinition-GoalProfile.xlsx
+++ b/docs/StructureDefinition-GoalProfile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-25T15:07:05+08:00</t>
+    <t>2022-10-08T22:29:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
